--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/17.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/17.xlsx
@@ -479,13 +479,13 @@
         <v>0.07043103020886692</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.626889522435457</v>
+        <v>-1.627235806642143</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01913467758825204</v>
+        <v>0.02080785991419467</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2252868816629253</v>
+        <v>-0.2276006897712373</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.06875309007684607</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.65142297146961</v>
+        <v>-1.651861335794892</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01954707059803282</v>
+        <v>0.02210012961278253</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.200902177435735</v>
+        <v>-0.2028287768402071</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06827303152529654</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.705205630825333</v>
+        <v>-1.705363032737463</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02065967383647195</v>
+        <v>-0.01787365999176974</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2108499782823554</v>
+        <v>-0.2127860218015552</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.07233073015595835</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.816060649500298</v>
+        <v>-1.817226997669182</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02758378395107368</v>
+        <v>-0.02385808069095495</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2300781958681646</v>
+        <v>-0.2321039584772785</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.08452995240748967</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.781776939019248</v>
+        <v>-1.782459276308332</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.007459949485244384</v>
+        <v>-0.00253012159733063</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2245848691348252</v>
+        <v>-0.2267947919811313</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.106618232276794</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.604662011414009</v>
+        <v>-1.60273856004778</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05671438410930596</v>
+        <v>0.0611657101843443</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2082024781203276</v>
+        <v>-0.2101448177160126</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1394897229551638</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.344359386238469</v>
+        <v>-1.342369039059584</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09038737517129157</v>
+        <v>0.09681409524356228</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1969860178619389</v>
+        <v>-0.199472968073594</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1805703659459335</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9373030882884585</v>
+        <v>-0.9357951779702525</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1869140977850562</v>
+        <v>0.193131473314194</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1712980258023117</v>
+        <v>-0.1747152213146555</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2256594139647305</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4933565041925241</v>
+        <v>-0.4951272757039874</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2017287657547383</v>
+        <v>0.2058904723114574</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1247133558882965</v>
+        <v>-0.1278865784368387</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2698850796239605</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01560549843797544</v>
+        <v>-0.02025987297966158</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1748555372967717</v>
+        <v>0.1801048910663095</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06049652377747106</v>
+        <v>-0.06299606614209655</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3092940379079703</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5414508867241871</v>
+        <v>0.5320303822832024</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1390403062106958</v>
+        <v>0.1427549913369655</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03283966207741713</v>
+        <v>0.03013864526526515</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3425957534308629</v>
       </c>
       <c r="E13" t="n">
-        <v>1.112272069102124</v>
+        <v>1.100246563015387</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01966984408949427</v>
+        <v>0.02346637821007153</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1346204605180835</v>
+        <v>0.1326985831709754</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3699522116329967</v>
       </c>
       <c r="E14" t="n">
-        <v>1.721499318039798</v>
+        <v>1.705423860753954</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1858010379859762</v>
+        <v>-0.1809750953600683</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2542773941193618</v>
+        <v>0.2521162658658159</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3929082341760993</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3673067713565</v>
+        <v>2.347696067124215</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4585486453440807</v>
+        <v>-0.4546246156746781</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3778489132753149</v>
+        <v>0.3757491717674998</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4145041455705761</v>
       </c>
       <c r="E16" t="n">
-        <v>2.993234363171174</v>
+        <v>2.969812958646219</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6946499395200626</v>
+        <v>-0.6905795260723789</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5264221521540081</v>
+        <v>0.5241114920839387</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4382995545644464</v>
       </c>
       <c r="E17" t="n">
-        <v>3.594013851484827</v>
+        <v>3.568192067799889</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9376485854855841</v>
+        <v>-0.934180234351798</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6882722423208726</v>
+        <v>0.6859175097154068</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.467385720010815</v>
       </c>
       <c r="E18" t="n">
-        <v>4.165381218497855</v>
+        <v>4.136707312165121</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.161130181356538</v>
+        <v>-1.157044027717641</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8239526905769919</v>
+        <v>0.8207086371679913</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.502741331088932</v>
       </c>
       <c r="E19" t="n">
-        <v>4.641608573742984</v>
+        <v>4.611033252311719</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.373538552709141</v>
+        <v>-1.370569952646368</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9993912878180453</v>
+        <v>0.9960071467072488</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5442320771454906</v>
       </c>
       <c r="E20" t="n">
-        <v>5.00879732837913</v>
+        <v>4.977167414136593</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.548212963666803</v>
+        <v>-1.544439252823484</v>
       </c>
       <c r="G20" t="n">
-        <v>1.133714931591603</v>
+        <v>1.13125473970501</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5910382303332822</v>
       </c>
       <c r="E21" t="n">
-        <v>5.345280117996943</v>
+        <v>5.31480553378944</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.764400554929649</v>
+        <v>-1.758920607358841</v>
       </c>
       <c r="G21" t="n">
-        <v>1.266455112129133</v>
+        <v>1.263851684502502</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6420066676636074</v>
       </c>
       <c r="E22" t="n">
-        <v>5.641586069543554</v>
+        <v>5.610159203767664</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.918882661589705</v>
+        <v>-1.911524122197624</v>
       </c>
       <c r="G22" t="n">
-        <v>1.374165240599739</v>
+        <v>1.371542924743652</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6944864603755146</v>
       </c>
       <c r="E23" t="n">
-        <v>5.805449330166563</v>
+        <v>5.773318877843452</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.049560877078331</v>
+        <v>-2.04078650748664</v>
       </c>
       <c r="G23" t="n">
-        <v>1.483814560627787</v>
+        <v>1.480516990568663</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.745757248608992</v>
       </c>
       <c r="E24" t="n">
-        <v>5.965446799827656</v>
+        <v>5.931830473454037</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.143923323400307</v>
+        <v>-2.134050288461948</v>
       </c>
       <c r="G24" t="n">
-        <v>1.523388549375529</v>
+        <v>1.521148720165919</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7922980001476676</v>
       </c>
       <c r="E25" t="n">
-        <v>6.05860826956008</v>
+        <v>6.026462077045756</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.177719087953754</v>
+        <v>-2.167672123902492</v>
       </c>
       <c r="G25" t="n">
-        <v>1.594886793941492</v>
+        <v>1.593378883623286</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8319006561881936</v>
       </c>
       <c r="E26" t="n">
-        <v>6.113368394790131</v>
+        <v>6.083188152158312</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.199499577544752</v>
+        <v>-2.190774789555383</v>
       </c>
       <c r="G26" t="n">
-        <v>1.664386034223402</v>
+        <v>1.662228054008099</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.863151227424478</v>
       </c>
       <c r="E27" t="n">
-        <v>6.101396405353518</v>
+        <v>6.071770217452396</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.192552644152892</v>
+        <v>-2.187066400505598</v>
       </c>
       <c r="G27" t="n">
-        <v>1.636420436495253</v>
+        <v>1.635395750047286</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8858430777641503</v>
       </c>
       <c r="E28" t="n">
-        <v>6.039968735125637</v>
+        <v>6.011433342475577</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.205284097815532</v>
+        <v>-2.201878707446598</v>
       </c>
       <c r="G28" t="n">
-        <v>1.629556139107261</v>
+        <v>1.629230317149152</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9000054571852864</v>
       </c>
       <c r="E29" t="n">
-        <v>5.938625514000693</v>
+        <v>5.910820466222916</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.155240520882459</v>
+        <v>-2.154242592759554</v>
       </c>
       <c r="G29" t="n">
-        <v>1.602698650840507</v>
+        <v>1.60300401055004</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9065153743652206</v>
       </c>
       <c r="E30" t="n">
-        <v>5.806736877807786</v>
+        <v>5.780576680011769</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.152545800146792</v>
+        <v>-2.154009637929602</v>
       </c>
       <c r="G30" t="n">
-        <v>1.537010110851265</v>
+        <v>1.537666476824848</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9057313049861965</v>
       </c>
       <c r="E31" t="n">
-        <v>5.608552130244817</v>
+        <v>5.583523652197014</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.094946144421915</v>
+        <v>-2.099671349824059</v>
       </c>
       <c r="G31" t="n">
-        <v>1.473375665815321</v>
+        <v>1.474792283024492</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8984057293381794</v>
       </c>
       <c r="E32" t="n">
-        <v>5.424643736112045</v>
+        <v>5.40348577108352</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.018105678958258</v>
+        <v>-2.024060980303699</v>
       </c>
       <c r="G32" t="n">
-        <v>1.429891813570269</v>
+        <v>1.431832579146832</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8847585266421762</v>
       </c>
       <c r="E33" t="n">
-        <v>5.158401549782275</v>
+        <v>5.139724238888922</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.981249234223442</v>
+        <v>-1.988914707344176</v>
       </c>
       <c r="G33" t="n">
-        <v>1.370005108062141</v>
+        <v>1.372413357317731</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8643110463241073</v>
       </c>
       <c r="E34" t="n">
-        <v>4.931503545408539</v>
+        <v>4.916684155381493</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.911339961960432</v>
+        <v>-1.920805325946374</v>
       </c>
       <c r="G34" t="n">
-        <v>1.274300023429696</v>
+        <v>1.276887710865114</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8366472938623912</v>
       </c>
       <c r="E35" t="n">
-        <v>4.639559200847051</v>
+        <v>4.627979142171642</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.874527589761012</v>
+        <v>-1.883888281475387</v>
       </c>
       <c r="G35" t="n">
-        <v>1.188243676010823</v>
+        <v>1.191811977358812</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8018941441597985</v>
       </c>
       <c r="E36" t="n">
-        <v>4.264637290267955</v>
+        <v>4.257023759778224</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.834844993693901</v>
+        <v>-1.845678180296253</v>
       </c>
       <c r="G36" t="n">
-        <v>1.138800587372526</v>
+        <v>1.142575085225405</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7605030311869853</v>
       </c>
       <c r="E37" t="n">
-        <v>3.95280049205147</v>
+        <v>3.946291922984891</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.794089703595622</v>
+        <v>-1.804778867448376</v>
       </c>
       <c r="G37" t="n">
-        <v>1.055961535037592</v>
+        <v>1.059915471070299</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7138696548123276</v>
       </c>
       <c r="E38" t="n">
-        <v>3.666107075278641</v>
+        <v>3.662568680293957</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.716949387489358</v>
+        <v>-1.72778257409171</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9782852654205243</v>
+        <v>0.9829821384784856</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6624576273375484</v>
       </c>
       <c r="E39" t="n">
-        <v>3.321425220057974</v>
+        <v>3.320254149831726</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.681073556667112</v>
+        <v>-1.689779456427026</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8947615147678246</v>
+        <v>0.8995874573937326</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6075441908186051</v>
       </c>
       <c r="E40" t="n">
-        <v>2.990969349655622</v>
+        <v>2.992296247774878</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.644108504612926</v>
+        <v>-1.650868916738912</v>
       </c>
       <c r="G40" t="n">
-        <v>0.833705313052571</v>
+        <v>0.8388114310820705</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.549808556725337</v>
       </c>
       <c r="E41" t="n">
-        <v>2.669597143602297</v>
+        <v>2.671322268559242</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.623441633550248</v>
+        <v>-1.63031773608165</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7802815300565044</v>
+        <v>0.7846289708695369</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4902256420736004</v>
       </c>
       <c r="E42" t="n">
-        <v>2.3346820770293</v>
+        <v>2.336482754904068</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.572271845935884</v>
+        <v>-1.57861986505209</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7181172188798549</v>
+        <v>0.7235098083894311</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4293948358292224</v>
       </c>
       <c r="E43" t="n">
-        <v>2.077471612417555</v>
+        <v>2.080150592962009</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.520162368906103</v>
+        <v>-1.526072810706587</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6424871741204782</v>
+        <v>0.6477648602341994</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3683358385998578</v>
       </c>
       <c r="E44" t="n">
-        <v>1.824566090102567</v>
+        <v>1.82678388304448</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.502406646208271</v>
+        <v>-1.507010652138075</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5578742022358385</v>
+        <v>0.5619021171672469</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.307826420897964</v>
       </c>
       <c r="E45" t="n">
-        <v>1.599172848008794</v>
+        <v>1.601248979229789</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.42570705545597</v>
+        <v>-1.427773742562238</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5041356154155117</v>
+        <v>0.5071986566255628</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2494078748055121</v>
       </c>
       <c r="E46" t="n">
-        <v>1.386324538311787</v>
+        <v>1.389371839330625</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.363157109594602</v>
+        <v>-1.366116265542648</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4415400229996259</v>
+        <v>0.4445275112918546</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1952962539398652</v>
       </c>
       <c r="E47" t="n">
-        <v>1.235598041275154</v>
+        <v>1.237337332404192</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.316629891378515</v>
+        <v>-1.318908284056597</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3774554084949897</v>
+        <v>0.3807325163055377</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1458308792450149</v>
       </c>
       <c r="E48" t="n">
-        <v>1.025965452642965</v>
+        <v>1.027865293722375</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.239195233696567</v>
+        <v>-1.240622869039586</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2924347656579331</v>
+        <v>0.2954175318927978</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1019323308077194</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8689192688343099</v>
+        <v>0.8706837442692881</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.16879329344859</v>
+        <v>-1.169857330374589</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2486754600666526</v>
+        <v>0.2506429839682785</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.06420835193596654</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7711443490573539</v>
+        <v>0.7716480351761701</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.096176708296943</v>
+        <v>-1.097210051850077</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2109540918246817</v>
+        <v>0.2131577185945026</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.03270469693717371</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6359628648626868</v>
+        <v>0.636439792656441</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.063705480834071</v>
+        <v>-1.064778961874798</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1693197120471572</v>
+        <v>0.1714997285301586</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.007634149983888356</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4634755534740723</v>
+        <v>0.4635731426595929</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.027795021591156</v>
+        <v>-1.028250700126773</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1267786972557635</v>
+        <v>0.128828070151697</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.01210091879212036</v>
       </c>
       <c r="E53" t="n">
-        <v>0.404216881595344</v>
+        <v>0.4029104457246644</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.028036633526276</v>
+        <v>-1.02657673079127</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09972288257972595</v>
+        <v>0.1016730922710175</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.02769465251716916</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2463663740157045</v>
+        <v>0.2462892470787608</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9678563734520262</v>
+        <v>-0.9660069009844979</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0536167144785862</v>
+        <v>0.05495935278905569</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.03974219702016185</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1279796738453159</v>
+        <v>0.1276538518872067</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9448308347360791</v>
+        <v>-0.9411405469061896</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0265908061658534</v>
+        <v>0.02785946557762175</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.04956374138955624</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04037606563020482</v>
+        <v>0.03926953018793043</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9292708687124611</v>
+        <v>-0.925100505050575</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008490932009696335</v>
+        <v>-0.007966783642303205</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.05793970932029786</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0715933585826409</v>
+        <v>-0.07330903942485865</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.930099589779826</v>
+        <v>-0.9257655281293246</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05024021518307577</v>
+        <v>-0.05050307637633299</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.06559965710379338</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1275513123640017</v>
+        <v>-0.1282202704905545</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9108965564999576</v>
+        <v>-0.9062398209295894</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08053850924899272</v>
+        <v>-0.08053693522987142</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.07266709465212585</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2078609159710053</v>
+        <v>-0.2078357316650646</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9209513906468263</v>
+        <v>-0.9143837958631992</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.106111597912765</v>
+        <v>-0.1058849391592977</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.07921511386179464</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3010696062770682</v>
+        <v>-0.3004699049918526</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9171855498991145</v>
+        <v>-0.9106486484883527</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1256546193228343</v>
+        <v>-0.1247999269399681</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.08509918333037307</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3949000341360448</v>
+        <v>-0.3933559213780488</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8985822179044616</v>
+        <v>-0.892308177686957</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1480670775910348</v>
+        <v>-0.1463309345002402</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.09022910699219815</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5031169967637097</v>
+        <v>-0.5011589169768116</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8880339287630651</v>
+        <v>-0.8815403128781391</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1766197844514293</v>
+        <v>-0.175461306378152</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.09466350946772278</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.566793940315929</v>
+        <v>-0.5653647309537879</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8977731720761131</v>
+        <v>-0.8905885617969361</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1983916169372604</v>
+        <v>-0.1966003831772202</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.098297231582404</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6869970585522986</v>
+        <v>-0.6852892478056873</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9204618707001019</v>
+        <v>-0.9123037295944003</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.235168573706451</v>
+        <v>-0.2334119683670794</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1009617778888117</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8096336103501991</v>
+        <v>-0.8070553670295085</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9553200981604268</v>
+        <v>-0.9471084404046012</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2807112429621651</v>
+        <v>-0.2788775106858498</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1023603719412758</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9057573840689108</v>
+        <v>-0.9039441140411724</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9840317809520727</v>
+        <v>-0.9763112171620928</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3081054717492823</v>
+        <v>-0.3052218687190594</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1024678109828891</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9494592379622637</v>
+        <v>-0.9466535488785452</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.023244532311476</v>
+        <v>-1.015658547156367</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3480100045124973</v>
+        <v>-0.3445912349810322</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1007865718478483</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9953505524533459</v>
+        <v>-0.9924929207386246</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.034634921682769</v>
+        <v>-1.025676391853886</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3712016022457416</v>
+        <v>-0.367439696545833</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.09723250668429201</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.061708837578701</v>
+        <v>-1.057573102337483</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.083459420806395</v>
+        <v>-1.073640689527721</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3910185029829173</v>
+        <v>-0.3871212316385768</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.09175298467764875</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.090091550373995</v>
+        <v>-1.084061483120292</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.127912868830169</v>
+        <v>-1.116690112495295</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4044102576669436</v>
+        <v>-0.400193460440979</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.08439043867154643</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.110142979960244</v>
+        <v>-1.103192111520581</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.137314485041698</v>
+        <v>-1.125525868832716</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4343795817365086</v>
+        <v>-0.4300038085792927</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.07531109848905194</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.136928063347418</v>
+        <v>-1.127368258214199</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.179590277611152</v>
+        <v>-1.167540374228035</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4125479365240681</v>
+        <v>-0.4075205194506337</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.06483520179360765</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.111554088102491</v>
+        <v>-1.101864426391763</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.203882114710186</v>
+        <v>-1.192727041197528</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4200386935223381</v>
+        <v>-0.4141817683719782</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.05297425888702406</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.115832272074186</v>
+        <v>-1.105143108221433</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.225849912576619</v>
+        <v>-1.215324446712481</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4235487561628386</v>
+        <v>-0.4185370792806172</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.03974432483403294</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.074370247390444</v>
+        <v>-1.062716996825894</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.243327033889981</v>
+        <v>-1.23232542724165</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4307247093368484</v>
+        <v>-0.4254470232231272</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.02561857166262999</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9864384561885414</v>
+        <v>-0.9738809316388046</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.259470961007601</v>
+        <v>-1.246907140381379</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4044212758007926</v>
+        <v>-0.398759529021474</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.01056531397407698</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9261188954220565</v>
+        <v>-0.9124516873918026</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.268973314442894</v>
+        <v>-1.256846284122833</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3873431683346802</v>
+        <v>-0.3815759622742345</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.005195688365401172</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.777219834585254</v>
+        <v>-0.7645237963528427</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.255171527777769</v>
+        <v>-1.242976814635491</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3437381166172872</v>
+        <v>-0.3374719464953892</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.02101488832397378</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6640273975151577</v>
+        <v>-0.6511912715809506</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.274968753275928</v>
+        <v>-1.263642898688609</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3285393879820078</v>
+        <v>-0.3228540309158697</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.03708857309871125</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5055850587459092</v>
+        <v>-0.4942662872446359</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.269822497758835</v>
+        <v>-1.259755858468557</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3069202353509428</v>
+        <v>-0.3005879564259502</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.05291322279314385</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3607013206875447</v>
+        <v>-0.3496123559779814</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.285120389598757</v>
+        <v>-1.277303023632817</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2830156069557493</v>
+        <v>-0.2770815548684457</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.06867805169241686</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1987567893734022</v>
+        <v>-0.1887554718766576</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.296655588729209</v>
+        <v>-1.289151452568408</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.257683343217536</v>
+        <v>-0.2519082670614838</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.08396254355834684</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.003304539005010568</v>
+        <v>0.005706720464435869</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.275014399830446</v>
+        <v>-1.269552553479532</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1933248493857935</v>
+        <v>-0.1880046647557972</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.09799254613543218</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1612764743373107</v>
+        <v>0.169648682043509</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.273913373455096</v>
+        <v>-1.268335836698767</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1699459433771144</v>
+        <v>-0.1644242842995916</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1097094337107102</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3324667939699735</v>
+        <v>0.339316925185874</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.192248539384652</v>
+        <v>-1.189570345849759</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1242049477121164</v>
+        <v>-0.1193679869523594</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1187101350273287</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5366989229969803</v>
+        <v>0.5412667264869949</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.121247684861021</v>
+        <v>-1.119613853013111</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07071190787471253</v>
+        <v>-0.06700981490141331</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1236461867625149</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7261447163984884</v>
+        <v>0.7298027368363913</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.037098261607604</v>
+        <v>-1.038029293917853</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02438222905834808</v>
+        <v>-0.02149862602812522</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1234198648466265</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8851552760705266</v>
+        <v>0.8865073584957238</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9111483995593657</v>
+        <v>-0.9133945248454618</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0003471853564070272</v>
+        <v>0.002731824325177569</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1164800285609483</v>
       </c>
       <c r="E89" t="n">
-        <v>1.025515283174273</v>
+        <v>1.026203129530281</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8036019690773749</v>
+        <v>-0.8084263376841615</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03309937523243174</v>
+        <v>0.03675267361297063</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.102768589165446</v>
       </c>
       <c r="E90" t="n">
-        <v>1.12866390423135</v>
+        <v>1.126491757843955</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.658098067485218</v>
+        <v>-0.6635158413007349</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0513343867527002</v>
+        <v>0.05442418628781346</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.08185586965972169</v>
       </c>
       <c r="E91" t="n">
-        <v>1.228540139535242</v>
+        <v>1.22591152760267</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4836778606156462</v>
+        <v>-0.4900416199230648</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02612017444858449</v>
+        <v>0.02871258394136672</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.05539093240098659</v>
       </c>
       <c r="E92" t="n">
-        <v>1.266250489643364</v>
+        <v>1.262266647247352</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3334755119464067</v>
+        <v>-0.3412669065968452</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05326256017629355</v>
+        <v>0.05577784273213205</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02458098472691112</v>
       </c>
       <c r="E93" t="n">
-        <v>1.29652359940334</v>
+        <v>1.291082215301004</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.225411229173508</v>
+        <v>-0.2337488084590378</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04150306332105611</v>
+        <v>0.04292125454934803</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.008422242680709005</v>
       </c>
       <c r="E94" t="n">
-        <v>1.248026496256945</v>
+        <v>1.241212567480834</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.09762448681071169</v>
+        <v>-0.1070150848883916</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05833719782336697</v>
+        <v>0.06043064325469688</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.0405492134524196</v>
       </c>
       <c r="E95" t="n">
-        <v>1.217512561571409</v>
+        <v>1.211189726761144</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01011689376199995</v>
+        <v>-0.01796652711992647</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01474788629718702</v>
+        <v>0.01690271847424766</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0710421417269068</v>
       </c>
       <c r="E96" t="n">
-        <v>1.128610387581225</v>
+        <v>1.122677909513043</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0668872696902723</v>
+        <v>0.06004343455085692</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02681723663900024</v>
+        <v>-0.02448296628211132</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.09737264202784249</v>
       </c>
       <c r="E97" t="n">
-        <v>1.066543665590097</v>
+        <v>1.062037248845813</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1147830975323309</v>
+        <v>0.1079219481825812</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01357658779061886</v>
+        <v>-0.01122342920427433</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1199822062690889</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9655483026909591</v>
+        <v>0.9603619096862734</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1112509986241322</v>
+        <v>0.1051233421849086</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0663046543350706</v>
+        <v>-0.06410102756524963</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1392109562458007</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9056789113931663</v>
+        <v>0.9024175437738312</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1247513606275282</v>
+        <v>0.1191321123644847</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05870529001743088</v>
+        <v>-0.05591455411536476</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1539644515668142</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8529949173841109</v>
+        <v>0.8503080667440507</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1169772801874241</v>
+        <v>0.1120836547393003</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06647464840017107</v>
+        <v>-0.06407269522106622</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1639252307972486</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7725609662665245</v>
+        <v>0.7702078076801799</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1114745093393569</v>
+        <v>0.1065887539868395</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06462832397088536</v>
+        <v>-0.06238377270391059</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1669358795088187</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7485508785902037</v>
+        <v>0.7468525119583204</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1108024031745615</v>
+        <v>0.1065194971455023</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06408371335491533</v>
+        <v>-0.06238692074215318</v>
       </c>
     </row>
   </sheetData>
